--- a/static/download/2014/RP1_ERT_SU_2014.xlsx
+++ b/static/download/2014/RP1_ERT_SU_2014.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="ERT_SU_ACT_PP" sheetId="1" r:id="rId3"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="94">
   <si>
     <t>Data source</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -37,7 +40,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>Period: JAN-DEC</t>
@@ -319,6 +322,12 @@
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -350,12 +359,6 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FFBFBFBF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -394,7 +397,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -739,289 +743,305 @@
   </cellStyleXfs>
   <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1037,7 +1057,7 @@
           <bgColor rgb="FFD8D8D8"/>
         </patternFill>
       </fill>
-      <alignment/>
+      <alignment shrinkToFit="0" wrapText="0"/>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1063,7 +1083,7 @@
           <bgColor rgb="FFD8D8D8"/>
         </patternFill>
       </fill>
-      <alignment/>
+      <alignment shrinkToFit="0" wrapText="0"/>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1083,24 +1103,27 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="5.0" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -1109,21 +1132,21 @@
       <selection activeCell="B6" sqref="B6" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.71"/>
-    <col customWidth="1" min="2" max="2" width="22.86"/>
-    <col customWidth="1" min="3" max="3" width="10.86"/>
-    <col customWidth="1" min="4" max="4" width="11.86"/>
-    <col customWidth="1" min="5" max="5" width="13.0"/>
-    <col customWidth="1" min="6" max="6" width="10.43"/>
-    <col customWidth="1" min="7" max="7" width="13.14"/>
-    <col customWidth="1" min="8" max="8" width="11.29"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="8.43"/>
-    <col customWidth="1" min="11" max="11" width="12.29"/>
-    <col customWidth="1" min="12" max="12" width="8.0"/>
-    <col customWidth="1" min="13" max="13" width="12.14"/>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="20.0"/>
+    <col customWidth="1" min="3" max="3" width="9.5"/>
+    <col customWidth="1" min="4" max="4" width="10.38"/>
+    <col customWidth="1" min="5" max="5" width="11.38"/>
+    <col customWidth="1" min="6" max="6" width="9.13"/>
+    <col customWidth="1" min="7" max="7" width="11.5"/>
+    <col customWidth="1" min="8" max="8" width="9.88"/>
+    <col customWidth="1" min="9" max="9" width="9.5"/>
+    <col customWidth="1" min="10" max="10" width="7.38"/>
+    <col customWidth="1" min="11" max="11" width="10.75"/>
+    <col customWidth="1" min="12" max="12" width="7.0"/>
+    <col customWidth="1" min="13" max="13" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1142,1313 +1165,1315 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
         <v>42034.0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
         <v>42004.0</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15">
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16">
         <v>365.0</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="D4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17">
         <v>365.0</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="F4" s="18"/>
+      <c r="G4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="17">
         <v>365.0</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="K5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="L5" s="27" t="s">
         <v>22</v>
       </c>
+      <c r="M5" s="27" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="28">
+      <c r="A6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="29">
         <v>2057979.4581000002</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="30">
         <v>5638.29988520548</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="29">
         <v>2743605.7678000005</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="31">
         <v>7516.728130958905</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="32">
         <v>0.3331550793675049</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="29">
         <v>2117994.9170640786</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="33">
         <v>5802.725800175558</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="34">
         <v>0.2953788253671217</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="35">
         <v>0.02</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="35">
         <v>0.1</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="35">
         <v>-0.02</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="36">
         <v>-0.1</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="28">
+      <c r="A7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="29">
         <v>2050928.5595999998</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="30">
         <v>5618.982355068492</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="29">
         <v>2220734.1993</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="31">
         <v>6084.203285753425</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="32">
         <v>0.08279451710064345</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="29">
         <v>1842584.0</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="33">
         <v>5048.175342465754</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="34">
         <v>0.20522820088527838</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="37">
         <v>0.02</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="37">
         <v>0.1</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="28">
+      <c r="A8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="29">
         <v>735327.1320000001</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="30">
         <v>2014.5948821917812</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="29">
         <v>727375.2278999999</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="31">
         <v>1992.8088435616437</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="32">
         <v>-0.010814104027920157</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="29">
         <v>607164.0000000001</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="33">
         <v>1663.4630136986304</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="34">
         <v>0.1979880689566571</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="37">
         <v>0.02</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="37">
         <v>0.1</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="28">
+      <c r="A9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="29">
         <v>2100927.3125000005</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="30">
         <v>5755.965239726029</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="29">
         <v>2406153.3022</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="31">
         <v>6592.200827945205</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="32">
         <v>0.1452815563318064</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="29">
         <v>2186850.19056175</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="33">
         <v>5991.370385100685</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="34">
         <v>0.10028264056895275</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="37">
         <v>0.02</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="37">
         <v>0.1</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="28">
+      <c r="A10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="29">
         <v>1326579.1846999999</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="30">
         <v>3634.4635197260272</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="29">
         <v>1454223.6582000002</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="31">
         <v>3984.1744060273977</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="32">
         <v>0.09622077217265135</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="29">
         <v>1340000.0</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="33">
         <v>3671.2328767123286</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="34">
         <v>0.0852415359701495</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="37">
         <v>0.02</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="37">
         <v>0.1</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="28">
+      <c r="A11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="29">
         <v>3751523.4236</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="30">
         <v>10278.146366027397</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <v>4181844.5976</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="31">
         <v>11457.108486575342</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="32">
         <v>0.11470571429540999</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="29">
         <v>4008000.0</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="33">
         <v>10980.82191780822</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="34">
         <v>0.043374400598802376</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="37">
         <v>0.02</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="37">
         <v>0.1</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="28">
+      <c r="A12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="29">
         <v>450550.68970000005</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="30">
         <v>1234.385451232877</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="29">
         <v>487217.49900000007</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="31">
         <v>1334.8424630136988</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="32">
         <v>0.08138220657128437</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="29">
         <v>467097.180942</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="33">
         <v>1279.718303950685</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="34">
         <v>0.0430752290506724</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="37">
         <v>0.02</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="37">
         <v>0.1</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="28">
+      <c r="A13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="29">
         <v>984989.0872000001</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="30">
         <v>2698.6002389041096</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="29">
         <v>1044343.4974999999</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="31">
         <v>2861.2150616438353</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="32">
         <v>0.060258952176541314</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="29">
         <v>1017625.0000000002</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="33">
         <v>2788.0136986301377</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <v>0.02625574008107079</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="37">
         <v>0.02</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="37">
         <v>0.1</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="28">
+      <c r="A14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="29">
         <v>733632.8931</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="30">
         <v>2009.9531317808219</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="29">
         <v>766860.7243</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="31">
         <v>2100.988285753425</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="32">
         <v>0.04529217748074821</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="29">
         <v>765000.0</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="33">
         <v>2095.890410958904</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="34">
         <v>0.0024323193464053094</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="37">
         <v>0.02</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="37">
         <v>0.1</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="28">
+      <c r="A15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="29">
         <v>2876752.5623</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="30">
         <v>7881.513869315068</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="29">
         <v>3019611.1865</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="31">
         <v>8272.907360273972</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="32">
         <v>0.049659684351087474</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="29">
         <v>3018536.0</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="33">
         <v>8269.961643835617</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="34">
         <v>3.561946917312042E-4</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="37">
         <v>0.02</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="37">
         <v>0.1</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="28">
+      <c r="A16" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="29">
         <v>2701734.6112999995</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="30">
         <v>7402.012633698629</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="29">
         <v>2767312.4796</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="31">
         <v>7581.678026301371</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="32">
         <v>0.024272505532453525</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="29">
         <v>2794000.0</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="33">
         <v>7654.7945205479455</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="34">
         <v>-0.009551725268432287</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="37">
         <v>0.02</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="37">
         <v>0.1</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="28">
+      <c r="A17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="29">
         <v>3812939.7393000005</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="30">
         <v>10446.410244657536</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="29">
         <v>3922498.8188</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="31">
         <v>10746.57210630137</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="32">
         <v>0.02873349357472743</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="29">
         <v>4003999.9999999995</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="33">
         <v>10969.863013698628</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <v>-0.02035494035964025</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="37">
         <v>0.02</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="37">
         <v>0.1</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="28">
+      <c r="A18" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="29">
         <v>2277014.1969999997</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="30">
         <v>6238.3950602739715</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="29">
         <v>2362038.1261000005</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="31">
         <v>6471.337331780823</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="32">
         <v>0.03734009617156575</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="29">
         <v>2422721.0</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="33">
         <v>6637.591780821917</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="34">
         <v>-0.025047404921986316</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="37">
         <v>0.02</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="37">
         <v>0.1</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="28">
+      <c r="A19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="29">
         <v>1.7899945006300002E7</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="30">
         <v>49040.945222739734</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="29">
         <v>1.84967542722E7</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="31">
         <v>50676.039101917806</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="32">
         <v>0.033341402204864146</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="29">
         <v>1.9045084117530797E7</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="33">
         <v>52178.31265076931</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="34">
         <v>-0.028791148516170928</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="37">
         <v>0.02</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="37">
         <v>0.1</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="28">
+      <c r="A20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="29">
         <v>411103.15380000003</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="30">
         <v>1126.310010410959</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="29">
         <v>459205.53390000004</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="31">
         <v>1258.097353150685</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="32">
         <v>0.11700805419605609</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="29">
         <v>473976.0</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="33">
         <v>1298.5643835616438</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="34">
         <v>-0.031162898754367174</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="37">
         <v>0.02</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="37">
         <v>0.1</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="28">
+      <c r="A21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="29">
         <v>3208683.5163000003</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="30">
         <v>8790.913743287672</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="29">
         <v>3284840.6705000005</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="31">
         <v>8999.563480821918</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="32">
         <v>0.02373470422156765</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="29">
         <v>3393000.0</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="33">
         <v>9295.890410958904</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="34">
         <v>-0.031877197023283066</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="37">
         <v>0.02</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="37">
         <v>0.1</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="28">
+      <c r="A22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="29">
         <v>2374020.6693000006</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="30">
         <v>6504.1662172602755</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="29">
         <v>2393407.7764</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="31">
         <v>6557.281579178082</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="32">
         <v>0.008166359859754557</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="29">
         <v>2499820.0</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="33">
         <v>6848.821917808219</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="34">
         <v>-0.04256795433271199</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="37">
         <v>0.02</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="37">
         <v>0.1</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="28">
+      <c r="A23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="29">
         <v>740986.431</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="30">
         <v>2030.099810958904</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="29">
         <v>789855.492</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="31">
         <v>2163.987649315068</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="32">
         <v>0.06595135748174052</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="29">
         <v>825254.9759999997</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="33">
         <v>2260.9725369863004</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="34">
         <v>-0.04289520818351267</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="37">
         <v>0.02</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="37">
         <v>0.1</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="28">
+      <c r="A24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="29">
         <v>1523723.6634000002</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="30">
         <v>4174.585379178083</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="29">
         <v>1532002.8405000002</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="31">
         <v>4197.268056164384</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="32">
         <v>0.005433516128197535</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="29">
         <v>1605335.6599999997</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="33">
         <v>4398.179890410958</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="34">
         <v>-0.045680676837390854</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="37">
         <v>0.02</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="37">
         <v>0.1</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="28">
+      <c r="A25" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="29">
         <v>3983698.2241</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="30">
         <v>10914.241709863014</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="29">
         <v>3930687.7122</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="31">
         <v>10769.007430684931</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="32">
         <v>-0.013306859334701882</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="29">
         <v>4161000.0000000005</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="33">
         <v>11400.000000000002</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="34">
         <v>-0.05535022537851486</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="37">
         <v>0.02</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="37">
         <v>0.1</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="28">
+      <c r="A26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="29">
         <v>8117393.287099999</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="30">
         <v>22239.43366328767</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="29">
         <v>8313545.568499999</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="31">
         <v>22776.8371739726</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="32">
         <v>0.024164442261497943</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="29">
         <v>9070635.875312129</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="33">
         <v>24851.05719263597</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="34">
         <v>-0.08346606756343611</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="37">
         <v>0.02</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="37">
         <v>0.1</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="28">
+      <c r="A27" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="29">
         <v>4215705.3061</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="30">
         <v>11549.877550958903</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="29">
         <v>4617798.8768</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="31">
         <v>12651.503772054793</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="32">
         <v>0.09537990478560787</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="29">
         <v>5040999.999999999</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="33">
         <v>13810.958904109586</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="34">
         <v>-0.08395181971830978</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="37">
         <v>0.02</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="37">
         <v>0.1</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="28">
+      <c r="A28" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="29">
         <v>1384957.4782</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="30">
         <v>3794.404049863014</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="29">
         <v>1427067.6982</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="31">
         <v>3909.7745156164383</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="32">
         <v>0.030405424471753317</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="29">
         <v>1564540.9978383402</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="33">
         <v>4286.413692707782</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="34">
         <v>-0.08786813501741486</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="37">
         <v>0.02</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="37">
         <v>0.1</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="28">
+      <c r="A29" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="29">
         <v>1.25060623626E7</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="30">
         <v>34263.184555068496</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="29">
         <v>1.2806142629E7</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="31">
         <v>35085.32227123288</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="32">
         <v>0.02399478410545952</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="29">
         <v>1.4119320000000004E7</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="33">
         <v>38683.0684931507</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="34">
         <v>-0.09300570926928509</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="37">
         <v>0.02</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="37">
         <v>0.1</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="28">
+      <c r="A30" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="29">
         <v>9754933.3453</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="30">
         <v>26725.844781643835</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="29">
         <v>9979402.8368</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="31">
         <v>27340.829689863014</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="32">
         <v>0.023010868814203667</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="29">
         <v>1.1034646999999998E7</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="33">
         <v>30231.90958904109</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="34">
         <v>-0.09563007889604436</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="37">
         <v>0.02</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="37">
         <v>0.1</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="28">
+      <c r="A31" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="29">
         <v>2456011.7958999993</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="30">
         <v>6728.799440821916</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="29">
         <v>2645391.6072000004</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="31">
         <v>7247.648238904111</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="32">
         <v>0.07710867334438154</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="29">
         <v>2947000.0000000005</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="33">
         <v>8073.972602739727</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="34">
         <v>-0.10234421201221577</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="37">
         <v>0.02</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="37">
         <v>0.1</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="28">
+      <c r="A32" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="29">
         <v>8447043.7234</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="30">
         <v>23142.585543561647</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="29">
         <v>8767768.639</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="31">
         <v>24021.283942465754</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="32">
         <v>0.037968894929657715</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="29">
         <v>9857260.269271042</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="33">
         <v>27006.1925185508</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="34">
         <v>-0.11052681987787372</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="37">
         <v>0.02</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="37">
         <v>0.1</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="28">
+      <c r="A33" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="29">
         <v>770451.8127</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="30">
         <v>2110.826884109589</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="29">
         <v>795764.4255</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="31">
         <v>2180.1765082191782</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="32">
         <v>0.032854245239937185</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="29">
         <v>940000.0</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="33">
         <v>2575.3424657534247</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="34">
         <v>-0.15344210053191487</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="37">
         <v>0.02</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="37">
         <v>0.1</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="37">
         <v>-0.02</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="38">
         <v>-0.1</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="39">
+      <c r="A34" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="40">
         <v>1515811.759</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="41">
         <v>4152.908928767123</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="40">
         <v>1491780.5693</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="42">
         <v>4087.0700528767125</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="43">
         <v>-0.01585367678890004</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="40">
         <v>1795247.5132803826</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="44">
         <v>4918.4863377544725</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="45">
         <v>-0.16903905547033438</v>
       </c>
-      <c r="J34" s="45">
+      <c r="J34" s="46">
         <v>0.02</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="46">
         <v>0.1</v>
       </c>
-      <c r="L34" s="45">
+      <c r="L34" s="46">
         <v>-0.02</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="47">
         <v>-0.1</v>
       </c>
     </row>
@@ -2463,25 +2488,31 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="11.29"/>
-    <col customWidth="1" min="4" max="4" width="13.43"/>
-    <col customWidth="1" min="5" max="5" width="14.86"/>
-    <col customWidth="1" min="6" max="6" width="13.14"/>
-    <col customWidth="1" min="7" max="7" width="9.57"/>
-    <col customWidth="1" min="8" max="8" width="8.0"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="9.88"/>
+    <col customWidth="1" min="4" max="4" width="11.75"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
+    <col customWidth="1" min="6" max="6" width="11.5"/>
+    <col customWidth="1" min="7" max="7" width="8.38"/>
+    <col customWidth="1" min="8" max="8" width="7.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -2489,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2500,98 +2531,100 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
         <v>42034.0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
         <v>42004.0</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="48"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
       <c r="A5" s="52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="58">
         <v>366.0</v>
@@ -2606,10 +2639,10 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="63">
         <v>365.0</v>
@@ -2626,10 +2659,10 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="63">
         <v>365.0</v>
@@ -2646,10 +2679,10 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="63">
         <v>365.0</v>
@@ -2666,10 +2699,10 @@
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="63">
         <v>366.0</v>
@@ -2692,10 +2725,10 @@
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="63">
         <v>365.0</v>
@@ -2717,11 +2750,11 @@
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>61</v>
+      <c r="A12" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="68">
         <v>365.0</v>
@@ -2744,40 +2777,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId1" ref="F1"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="9.0"/>
-    <col customWidth="1" min="6" max="6" width="10.29"/>
-    <col customWidth="1" min="7" max="7" width="8.0"/>
-    <col customWidth="1" min="8" max="8" width="19.43"/>
-    <col customWidth="1" min="9" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="10" width="8.0"/>
-    <col customWidth="1" min="11" max="11" width="16.57"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="4" width="9.13"/>
+    <col customWidth="1" min="5" max="5" width="7.88"/>
+    <col customWidth="1" min="6" max="6" width="9.0"/>
+    <col customWidth="1" min="7" max="7" width="7.0"/>
+    <col customWidth="1" min="8" max="8" width="17.0"/>
+    <col customWidth="1" min="9" max="9" width="7.63"/>
+    <col customWidth="1" min="10" max="10" width="7.0"/>
+    <col customWidth="1" min="11" max="11" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>52</v>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2788,89 +2824,91 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
         <v>42034.0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
         <v>42004.0</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
     </row>
     <row r="4" ht="38.25" customHeight="1">
       <c r="A4" s="54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" s="54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="73">
         <v>2008.0</v>
@@ -2879,7 +2917,7 @@
         <v>39448.0</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="76">
         <v>31.0</v>
@@ -2897,7 +2935,7 @@
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="79">
         <v>2008.0</v>
@@ -2906,7 +2944,7 @@
         <v>39479.0</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="82">
         <v>29.0</v>
@@ -2917,14 +2955,14 @@
       <c r="G6" s="83">
         <v>254835.03629655173</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="83"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="79">
         <v>2008.0</v>
@@ -2933,7 +2971,7 @@
         <v>39508.0</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="82">
         <v>31.0</v>
@@ -2944,14 +2982,14 @@
       <c r="G7" s="83">
         <v>265832.1353129032</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="83"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="79">
         <v>2008.0</v>
@@ -2960,7 +2998,7 @@
         <v>39539.0</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" s="82">
         <v>30.0</v>
@@ -2971,14 +3009,14 @@
       <c r="G8" s="83">
         <v>282083.97083</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="83"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="79">
         <v>2008.0</v>
@@ -2987,7 +3025,7 @@
         <v>39569.0</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="82">
         <v>31.0</v>
@@ -2998,14 +3036,14 @@
       <c r="G9" s="83">
         <v>301273.9559903226</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="83"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="79">
         <v>2008.0</v>
@@ -3014,7 +3052,7 @@
         <v>39600.0</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" s="82">
         <v>30.0</v>
@@ -3025,14 +3063,14 @@
       <c r="G10" s="83">
         <v>320852.50524666667</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="83"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="79">
         <v>2008.0</v>
@@ -3041,7 +3079,7 @@
         <v>39630.0</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="82">
         <v>31.0</v>
@@ -3052,14 +3090,14 @@
       <c r="G11" s="83">
         <v>328994.4019451613</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="83"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="79">
         <v>2008.0</v>
@@ -3068,7 +3106,7 @@
         <v>39661.0</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="82">
         <v>31.0</v>
@@ -3079,14 +3117,14 @@
       <c r="G12" s="83">
         <v>331983.57360967743</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="83"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="79">
         <v>2008.0</v>
@@ -3095,7 +3133,7 @@
         <v>39692.0</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="82">
         <v>30.0</v>
@@ -3106,14 +3144,14 @@
       <c r="G13" s="83">
         <v>317084.5641233333</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="83"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="79">
         <v>2008.0</v>
@@ -3122,7 +3160,7 @@
         <v>39722.0</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" s="82">
         <v>31.0</v>
@@ -3133,14 +3171,14 @@
       <c r="G14" s="83">
         <v>290720.10560645163</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="83"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="79">
         <v>2008.0</v>
@@ -3149,7 +3187,7 @@
         <v>39753.0</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="82">
         <v>30.0</v>
@@ -3160,23 +3198,23 @@
       <c r="G15" s="83">
         <v>244182.4012333333</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="83"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="20">
         <v>2008.0</v>
       </c>
       <c r="C16" s="84">
         <v>39783.0</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E16" s="86">
         <v>31.0</v>
@@ -3187,14 +3225,14 @@
       <c r="G16" s="87">
         <v>230530.6308548387</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="87"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="73">
         <v>2009.0</v>
@@ -3203,7 +3241,7 @@
         <v>39814.0</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="76">
         <v>31.0</v>
@@ -3223,7 +3261,7 @@
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="79">
         <v>2009.0</v>
@@ -3232,7 +3270,7 @@
         <v>39845.0</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="82">
         <v>28.0</v>
@@ -3247,12 +3285,12 @@
         <v>-0.10004518542966134</v>
       </c>
       <c r="I18" s="83"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="79">
         <v>2009.0</v>
@@ -3261,7 +3299,7 @@
         <v>39873.0</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="82">
         <v>31.0</v>
@@ -3276,12 +3314,12 @@
         <v>-0.0944567624133692</v>
       </c>
       <c r="I19" s="83"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="79">
         <v>2009.0</v>
@@ -3290,7 +3328,7 @@
         <v>39904.0</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" s="82">
         <v>30.0</v>
@@ -3305,12 +3343,12 @@
         <v>-0.08513209999122329</v>
       </c>
       <c r="I20" s="83"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="79">
         <v>2009.0</v>
@@ -3319,7 +3357,7 @@
         <v>39934.0</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="82">
         <v>31.0</v>
@@ -3334,12 +3372,12 @@
         <v>-0.08344972939759876</v>
       </c>
       <c r="I21" s="83"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="79">
         <v>2009.0</v>
@@ -3348,7 +3386,7 @@
         <v>39965.0</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="82">
         <v>30.0</v>
@@ -3363,12 +3401,12 @@
         <v>-0.0827329686212912</v>
       </c>
       <c r="I22" s="83"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="79">
         <v>2009.0</v>
@@ -3377,7 +3415,7 @@
         <v>39995.0</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="82">
         <v>31.0</v>
@@ -3392,12 +3430,12 @@
         <v>-0.07846463192668962</v>
       </c>
       <c r="I23" s="83"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="79">
         <v>2009.0</v>
@@ -3406,7 +3444,7 @@
         <v>40026.0</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="82">
         <v>31.0</v>
@@ -3421,12 +3459,12 @@
         <v>-0.07649351213880229</v>
       </c>
       <c r="I24" s="83"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" s="79">
         <v>2009.0</v>
@@ -3435,7 +3473,7 @@
         <v>40057.0</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" s="82">
         <v>30.0</v>
@@ -3450,12 +3488,12 @@
         <v>-0.07579615955217534</v>
       </c>
       <c r="I25" s="83"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="79">
         <v>2009.0</v>
@@ -3464,7 +3502,7 @@
         <v>40087.0</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="82">
         <v>31.0</v>
@@ -3479,12 +3517,12 @@
         <v>-0.0734546692314606</v>
       </c>
       <c r="I26" s="83"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="79">
         <v>2009.0</v>
@@ -3493,7 +3531,7 @@
         <v>40118.0</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="82">
         <v>30.0</v>
@@ -3508,21 +3546,21 @@
         <v>-0.06935329358162756</v>
       </c>
       <c r="I27" s="83"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="19">
+      <c r="A28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="20">
         <v>2009.0</v>
       </c>
       <c r="C28" s="84">
         <v>40148.0</v>
       </c>
       <c r="D28" s="85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" s="86">
         <v>31.0</v>
@@ -3537,12 +3575,12 @@
         <v>-0.06544136285379931</v>
       </c>
       <c r="I28" s="87"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="73">
         <v>2010.0</v>
@@ -3551,7 +3589,7 @@
         <v>40179.0</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="76">
         <v>31.0</v>
@@ -3571,7 +3609,7 @@
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="79">
         <v>2010.0</v>
@@ -3580,7 +3618,7 @@
         <v>40210.0</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30" s="82">
         <v>28.0</v>
@@ -3595,12 +3633,12 @@
         <v>0.0010093330899183517</v>
       </c>
       <c r="I30" s="83"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="79">
         <v>2010.0</v>
@@ -3609,7 +3647,7 @@
         <v>40238.0</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" s="82">
         <v>31.0</v>
@@ -3624,12 +3662,12 @@
         <v>0.007839016984130254</v>
       </c>
       <c r="I31" s="83"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="79">
         <v>2010.0</v>
@@ -3638,7 +3676,7 @@
         <v>40269.0</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E32" s="82">
         <v>30.0</v>
@@ -3653,12 +3691,12 @@
         <v>-0.023196015644132095</v>
       </c>
       <c r="I32" s="83"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" s="79">
         <v>2010.0</v>
@@ -3667,7 +3705,7 @@
         <v>40299.0</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E33" s="82">
         <v>31.0</v>
@@ -3682,12 +3720,12 @@
         <v>-0.009495329361158045</v>
       </c>
       <c r="I33" s="83"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="79">
         <v>2010.0</v>
@@ -3696,7 +3734,7 @@
         <v>40330.0</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E34" s="82">
         <v>30.0</v>
@@ -3711,12 +3749,12 @@
         <v>9.151581383737284E-4</v>
       </c>
       <c r="I34" s="83"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="79">
         <v>2010.0</v>
@@ -3725,7 +3763,7 @@
         <v>40360.0</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="82">
         <v>31.0</v>
@@ -3740,12 +3778,12 @@
         <v>0.009219707682121214</v>
       </c>
       <c r="I35" s="83"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="79">
         <v>2010.0</v>
@@ -3754,7 +3792,7 @@
         <v>40391.0</v>
       </c>
       <c r="D36" s="81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36" s="82">
         <v>31.0</v>
@@ -3769,12 +3807,12 @@
         <v>0.014749456248542847</v>
       </c>
       <c r="I36" s="83"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="79">
         <v>2010.0</v>
@@ -3783,7 +3821,7 @@
         <v>40422.0</v>
       </c>
       <c r="D37" s="81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="82">
         <v>30.0</v>
@@ -3798,12 +3836,12 @@
         <v>0.019334864092736215</v>
       </c>
       <c r="I37" s="83"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" s="79">
         <v>2010.0</v>
@@ -3812,7 +3850,7 @@
         <v>40452.0</v>
       </c>
       <c r="D38" s="81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E38" s="82">
         <v>31.0</v>
@@ -3827,12 +3865,12 @@
         <v>0.024286137370327587</v>
       </c>
       <c r="I38" s="83"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" s="79">
         <v>2010.0</v>
@@ -3841,7 +3879,7 @@
         <v>40483.0</v>
       </c>
       <c r="D39" s="81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39" s="82">
         <v>30.0</v>
@@ -3856,21 +3894,21 @@
         <v>0.026074180630433874</v>
       </c>
       <c r="I39" s="83"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="19">
+      <c r="A40" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="20">
         <v>2010.0</v>
       </c>
       <c r="C40" s="84">
         <v>40513.0</v>
       </c>
       <c r="D40" s="85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="86">
         <v>31.0</v>
@@ -3885,12 +3923,12 @@
         <v>0.025487145299570413</v>
       </c>
       <c r="I40" s="87"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" s="73">
         <v>2011.0</v>
@@ -3899,7 +3937,7 @@
         <v>40544.0</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="76">
         <v>31.0</v>
@@ -3919,7 +3957,7 @@
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="79">
         <v>2011.0</v>
@@ -3928,7 +3966,7 @@
         <v>40575.0</v>
       </c>
       <c r="D42" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E42" s="82">
         <v>28.0</v>
@@ -3943,12 +3981,12 @@
         <v>0.057338875612713336</v>
       </c>
       <c r="I42" s="83"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" s="79">
         <v>2011.0</v>
@@ -3957,7 +3995,7 @@
         <v>40603.0</v>
       </c>
       <c r="D43" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E43" s="82">
         <v>31.0</v>
@@ -3972,12 +4010,12 @@
         <v>0.05512184684788535</v>
       </c>
       <c r="I43" s="83"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="79">
         <v>2011.0</v>
@@ -3986,7 +4024,7 @@
         <v>40634.0</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" s="82">
         <v>30.0</v>
@@ -4001,12 +4039,12 @@
         <v>0.09374158011600531</v>
       </c>
       <c r="I44" s="83"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="79">
         <v>2011.0</v>
@@ -4015,7 +4053,7 @@
         <v>40664.0</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" s="82">
         <v>31.0</v>
@@ -4030,12 +4068,12 @@
         <v>0.0833848530503114</v>
       </c>
       <c r="I45" s="83"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="79">
         <v>2011.0</v>
@@ -4044,7 +4082,7 @@
         <v>40695.0</v>
       </c>
       <c r="D46" s="81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" s="82">
         <v>30.0</v>
@@ -4059,12 +4097,12 @@
         <v>0.07548309599862413</v>
       </c>
       <c r="I46" s="83"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="79">
         <v>2011.0</v>
@@ -4073,7 +4111,7 @@
         <v>40725.0</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" s="82">
         <v>31.0</v>
@@ -4088,12 +4126,12 @@
         <v>0.0695222292548634</v>
       </c>
       <c r="I47" s="83"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" s="79">
         <v>2011.0</v>
@@ -4102,7 +4140,7 @@
         <v>40756.0</v>
       </c>
       <c r="D48" s="81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" s="82">
         <v>31.0</v>
@@ -4117,12 +4155,12 @@
         <v>0.06319103222169109</v>
       </c>
       <c r="I48" s="83"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="79">
         <v>2011.0</v>
@@ -4131,7 +4169,7 @@
         <v>40787.0</v>
       </c>
       <c r="D49" s="81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="82">
         <v>30.0</v>
@@ -4146,12 +4184,12 @@
         <v>0.061596424057559496</v>
       </c>
       <c r="I49" s="83"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="79">
         <v>2011.0</v>
@@ -4160,7 +4198,7 @@
         <v>40817.0</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="82">
         <v>31.0</v>
@@ -4175,12 +4213,12 @@
         <v>0.05770022266398378</v>
       </c>
       <c r="I50" s="83"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="79">
         <v>2011.0</v>
@@ -4189,7 +4227,7 @@
         <v>40848.0</v>
       </c>
       <c r="D51" s="81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="82">
         <v>30.0</v>
@@ -4204,21 +4242,21 @@
         <v>0.05306862017154401</v>
       </c>
       <c r="I51" s="83"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" ht="12.0" customHeight="1">
-      <c r="A52" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="19">
+      <c r="A52" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="20">
         <v>2011.0</v>
       </c>
       <c r="C52" s="84">
         <v>40878.0</v>
       </c>
       <c r="D52" s="85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E52" s="86">
         <v>31.0</v>
@@ -4233,12 +4271,12 @@
         <v>0.05184293939176543</v>
       </c>
       <c r="I52" s="87"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" s="73">
         <v>2012.0</v>
@@ -4247,7 +4285,7 @@
         <v>40909.0</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="76">
         <v>31.0</v>
@@ -4273,7 +4311,7 @@
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" s="79">
         <v>2012.0</v>
@@ -4282,7 +4320,7 @@
         <v>40940.0</v>
       </c>
       <c r="D54" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E54" s="82">
         <v>29.0</v>
@@ -4308,7 +4346,7 @@
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="79">
         <v>2012.0</v>
@@ -4317,7 +4355,7 @@
         <v>40969.0</v>
       </c>
       <c r="D55" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E55" s="82">
         <v>31.0</v>
@@ -4343,7 +4381,7 @@
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="79">
         <v>2012.0</v>
@@ -4352,7 +4390,7 @@
         <v>41000.0</v>
       </c>
       <c r="D56" s="81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E56" s="82">
         <v>30.0</v>
@@ -4378,7 +4416,7 @@
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="A57" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" s="79">
         <v>2012.0</v>
@@ -4387,7 +4425,7 @@
         <v>41030.0</v>
       </c>
       <c r="D57" s="81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="82">
         <v>31.0</v>
@@ -4413,7 +4451,7 @@
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" s="79">
         <v>2012.0</v>
@@ -4422,7 +4460,7 @@
         <v>41061.0</v>
       </c>
       <c r="D58" s="81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E58" s="82">
         <v>30.0</v>
@@ -4448,7 +4486,7 @@
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" s="79">
         <v>2012.0</v>
@@ -4457,7 +4495,7 @@
         <v>41091.0</v>
       </c>
       <c r="D59" s="81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E59" s="82">
         <v>31.0</v>
@@ -4483,7 +4521,7 @@
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" s="79">
         <v>2012.0</v>
@@ -4492,7 +4530,7 @@
         <v>41122.0</v>
       </c>
       <c r="D60" s="81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="82">
         <v>31.0</v>
@@ -4518,7 +4556,7 @@
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" s="79">
         <v>2012.0</v>
@@ -4527,7 +4565,7 @@
         <v>41153.0</v>
       </c>
       <c r="D61" s="81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E61" s="82">
         <v>30.0</v>
@@ -4553,7 +4591,7 @@
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="79">
         <v>2012.0</v>
@@ -4562,7 +4600,7 @@
         <v>41183.0</v>
       </c>
       <c r="D62" s="81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="82">
         <v>31.0</v>
@@ -4588,7 +4626,7 @@
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="79">
         <v>2012.0</v>
@@ -4597,7 +4635,7 @@
         <v>41214.0</v>
       </c>
       <c r="D63" s="81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="82">
         <v>30.0</v>
@@ -4622,17 +4660,17 @@
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="19">
+      <c r="A64" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="20">
         <v>2012.0</v>
       </c>
       <c r="C64" s="84">
         <v>41244.0</v>
       </c>
       <c r="D64" s="85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" s="86">
         <v>31.0</v>
@@ -4658,7 +4696,7 @@
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="A65" s="73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="73">
         <v>2013.0</v>
@@ -4667,7 +4705,7 @@
         <v>41275.0</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E65" s="76">
         <v>31.0</v>
@@ -4693,7 +4731,7 @@
     </row>
     <row r="66" ht="12.0" customHeight="1">
       <c r="A66" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66" s="79">
         <v>2013.0</v>
@@ -4702,7 +4740,7 @@
         <v>41306.0</v>
       </c>
       <c r="D66" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E66" s="82">
         <v>28.0</v>
@@ -4728,7 +4766,7 @@
     </row>
     <row r="67" ht="12.0" customHeight="1">
       <c r="A67" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B67" s="79">
         <v>2013.0</v>
@@ -4737,7 +4775,7 @@
         <v>41334.0</v>
       </c>
       <c r="D67" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E67" s="82">
         <v>31.0</v>
@@ -4763,7 +4801,7 @@
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B68" s="79">
         <v>2013.0</v>
@@ -4772,7 +4810,7 @@
         <v>41365.0</v>
       </c>
       <c r="D68" s="81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E68" s="82">
         <v>30.0</v>
@@ -4798,7 +4836,7 @@
     </row>
     <row r="69" ht="12.0" customHeight="1">
       <c r="A69" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B69" s="79">
         <v>2013.0</v>
@@ -4807,7 +4845,7 @@
         <v>41395.0</v>
       </c>
       <c r="D69" s="81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E69" s="82">
         <v>31.0</v>
@@ -4833,7 +4871,7 @@
     </row>
     <row r="70" ht="12.0" customHeight="1">
       <c r="A70" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" s="79">
         <v>2013.0</v>
@@ -4842,7 +4880,7 @@
         <v>41426.0</v>
       </c>
       <c r="D70" s="81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E70" s="82">
         <v>30.0</v>
@@ -4868,7 +4906,7 @@
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B71" s="79">
         <v>2013.0</v>
@@ -4877,7 +4915,7 @@
         <v>41456.0</v>
       </c>
       <c r="D71" s="81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E71" s="82">
         <v>31.0</v>
@@ -4903,7 +4941,7 @@
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="A72" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B72" s="79">
         <v>2013.0</v>
@@ -4912,7 +4950,7 @@
         <v>41487.0</v>
       </c>
       <c r="D72" s="81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E72" s="82">
         <v>31.0</v>
@@ -4938,7 +4976,7 @@
     </row>
     <row r="73" ht="12.0" customHeight="1">
       <c r="A73" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B73" s="79">
         <v>2013.0</v>
@@ -4947,7 +4985,7 @@
         <v>41518.0</v>
       </c>
       <c r="D73" s="81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E73" s="82">
         <v>30.0</v>
@@ -4973,7 +5011,7 @@
     </row>
     <row r="74" ht="12.0" customHeight="1">
       <c r="A74" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B74" s="79">
         <v>2013.0</v>
@@ -4982,7 +5020,7 @@
         <v>41548.0</v>
       </c>
       <c r="D74" s="81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E74" s="82">
         <v>31.0</v>
@@ -5008,7 +5046,7 @@
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="A75" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B75" s="79">
         <v>2013.0</v>
@@ -5017,7 +5055,7 @@
         <v>41579.0</v>
       </c>
       <c r="D75" s="81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" s="82">
         <v>30.0</v>
@@ -5042,17 +5080,17 @@
       </c>
     </row>
     <row r="76" ht="12.0" customHeight="1">
-      <c r="A76" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="19">
+      <c r="A76" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="20">
         <v>2013.0</v>
       </c>
       <c r="C76" s="84">
         <v>41609.0</v>
       </c>
       <c r="D76" s="85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E76" s="86">
         <v>31.0</v>
@@ -5078,7 +5116,7 @@
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="A77" s="73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B77" s="73">
         <v>2014.0</v>
@@ -5087,7 +5125,7 @@
         <v>41640.0</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E77" s="76">
         <v>31.0</v>
@@ -5113,7 +5151,7 @@
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B78" s="79">
         <v>2014.0</v>
@@ -5122,7 +5160,7 @@
         <v>41671.0</v>
       </c>
       <c r="D78" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E78" s="82">
         <v>28.0</v>
@@ -5148,7 +5186,7 @@
     </row>
     <row r="79" ht="12.0" customHeight="1">
       <c r="A79" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B79" s="79">
         <v>2014.0</v>
@@ -5157,7 +5195,7 @@
         <v>41699.0</v>
       </c>
       <c r="D79" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E79" s="82">
         <v>31.0</v>
@@ -5183,7 +5221,7 @@
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="A80" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B80" s="79">
         <v>2014.0</v>
@@ -5192,7 +5230,7 @@
         <v>41730.0</v>
       </c>
       <c r="D80" s="81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E80" s="82">
         <v>30.0</v>
@@ -5218,7 +5256,7 @@
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="A81" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B81" s="79">
         <v>2014.0</v>
@@ -5227,7 +5265,7 @@
         <v>41760.0</v>
       </c>
       <c r="D81" s="81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E81" s="82">
         <v>31.0</v>
@@ -5253,7 +5291,7 @@
     </row>
     <row r="82" ht="12.0" customHeight="1">
       <c r="A82" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B82" s="79">
         <v>2014.0</v>
@@ -5262,7 +5300,7 @@
         <v>41791.0</v>
       </c>
       <c r="D82" s="81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E82" s="82">
         <v>30.0</v>
@@ -5288,7 +5326,7 @@
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B83" s="79">
         <v>2014.0</v>
@@ -5297,7 +5335,7 @@
         <v>41821.0</v>
       </c>
       <c r="D83" s="81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E83" s="82">
         <v>31.0</v>
@@ -5323,7 +5361,7 @@
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="A84" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B84" s="79">
         <v>2014.0</v>
@@ -5332,7 +5370,7 @@
         <v>41852.0</v>
       </c>
       <c r="D84" s="81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E84" s="82">
         <v>31.0</v>
@@ -5358,7 +5396,7 @@
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="A85" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B85" s="79">
         <v>2014.0</v>
@@ -5367,7 +5405,7 @@
         <v>41883.0</v>
       </c>
       <c r="D85" s="81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E85" s="82">
         <v>30.0</v>
@@ -5393,7 +5431,7 @@
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="A86" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B86" s="79">
         <v>2014.0</v>
@@ -5402,7 +5440,7 @@
         <v>41913.0</v>
       </c>
       <c r="D86" s="81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E86" s="82">
         <v>31.0</v>
@@ -5428,7 +5466,7 @@
     </row>
     <row r="87" ht="12.0" customHeight="1">
       <c r="A87" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B87" s="79">
         <v>2014.0</v>
@@ -5437,7 +5475,7 @@
         <v>41944.0</v>
       </c>
       <c r="D87" s="81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E87" s="82">
         <v>30.0</v>
@@ -5462,17 +5500,17 @@
       </c>
     </row>
     <row r="88" ht="12.0" customHeight="1">
-      <c r="A88" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" s="19">
+      <c r="A88" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="20">
         <v>2014.0</v>
       </c>
       <c r="C88" s="84">
         <v>41974.0</v>
       </c>
       <c r="D88" s="85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E88" s="86">
         <v>31.0</v>
@@ -5498,38 +5536,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId1" ref="F1"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
+    <col customWidth="1" min="5" max="6" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="93"/>
@@ -5539,13 +5580,13 @@
         <v>41471.0</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="96">
         <v>2012.0</v>
       </c>
       <c r="D2" s="97" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
